--- a/documents/viz performance.xlsx
+++ b/documents/viz performance.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\dssvisualizer\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="7350" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="7350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,136 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
-  <si>
-    <t>keypressData before getting data: 2016-11-21 03:37:12</t>
-  </si>
-  <si>
-    <t>keypressData data retrieved: 2016-11-21 03:37:12</t>
-  </si>
-  <si>
-    <t>keypressData before visualizeKeyData: 2016-11-21 03:37:12</t>
-  </si>
-  <si>
-    <t>keypressData after visualizeKeyData: 2016-11-21 03:37:15</t>
-  </si>
-  <si>
-    <t>pcapData before getting data: 2016-11-21 03:37:15</t>
-  </si>
-  <si>
-    <t>pcapData data retrieved: 2016-11-21 03:37:19</t>
-  </si>
-  <si>
-    <t>pcapData before visualizeKeyData: 2016-11-21 03:37:19</t>
-  </si>
-  <si>
-    <t>pcapData after visualizeKeyData: 2016-11-21 03:37:54</t>
-  </si>
-  <si>
-    <t>screenshotData before getting data: 2016-11-21 03:37:54</t>
-  </si>
-  <si>
-    <t>screenshotData data retrieved: 2016-11-21 03:37:54</t>
-  </si>
-  <si>
-    <t>screenshotData before visualizeKeyData: 2016-11-21 03:37:54</t>
-  </si>
-  <si>
-    <t>screenshotData after visualizeKeyData: 2016-11-21 03:37:57</t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>largeish</t>
-  </si>
-  <si>
-    <t>keypressData before getting data: 2016-11-21 03:39:20</t>
-  </si>
-  <si>
-    <t>keypressData data retrieved: 2016-11-21 03:39:21</t>
-  </si>
-  <si>
-    <t>keypressData before visualizeKeyData: 2016-11-21 03:39:21</t>
-  </si>
-  <si>
-    <t>keypressData after visualizeKeyData: 2016-11-21 03:39:36</t>
-  </si>
-  <si>
-    <t>pcapData before getting data: 2016-11-21 03:39:36</t>
-  </si>
-  <si>
-    <t>pcapData data retrieved: 2016-11-21 03:39:41</t>
-  </si>
-  <si>
-    <t>pcapData before visualizeKeyData: 2016-11-21 03:39:41</t>
-  </si>
-  <si>
-    <t>pcapData after visualizeKeyData: 2016-11-21 03:40:54</t>
-  </si>
-  <si>
-    <t>screenshotData before getting data: 2016-11-21 03:40:54</t>
-  </si>
-  <si>
-    <t>screenshotData data retrieved: 2016-11-21 03:40:54</t>
-  </si>
-  <si>
-    <t>screenshotData before visualizeKeyData: 2016-11-21 03:40:54</t>
-  </si>
-  <si>
-    <t>screenshotData after visualizeKeyData: 2016-11-21 03:41:07</t>
-  </si>
-  <si>
-    <t>very small</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>keypressData before getting data: 2016-11-21 03:48:12</t>
-  </si>
-  <si>
-    <t>keypressData data retrieved: 2016-11-21 03:48:12</t>
-  </si>
-  <si>
-    <t>keypressData before visualizeKeyData: 2016-11-21 03:48:12</t>
-  </si>
-  <si>
-    <t>keypressData after visualizeKeyData: 2016-11-21 03:48:13</t>
-  </si>
-  <si>
-    <t>pcapData before getting data: 2016-11-21 03:48:13</t>
-  </si>
-  <si>
-    <t>pcapData data retrieved: 2016-11-21 03:48:14</t>
-  </si>
-  <si>
-    <t>pcapData before visualizeKeyData: 2016-11-21 03:48:14</t>
-  </si>
-  <si>
-    <t>pcapData after visualizeKeyData: 2016-11-21 03:48:17</t>
-  </si>
-  <si>
-    <t>screenshotData before getting data: 2016-11-21 03:48:17</t>
-  </si>
-  <si>
-    <t>screenshotData data retrieved: 2016-11-21 03:48:17</t>
-  </si>
-  <si>
-    <t>screenshotData before visualizeKeyData: 2016-11-21 03:48:17</t>
-  </si>
-  <si>
-    <t>screenshotData after visualizeKeyData: 2016-11-21 03:48:17</t>
-  </si>
-  <si>
-    <t>total:</t>
-  </si>
-  <si>
-    <t>database time:</t>
-  </si>
-  <si>
-    <t>ui load time:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="47">
   <si>
     <t>Total load time</t>
   </si>
@@ -241,6 +113,60 @@
   </si>
   <si>
     <t>Total load time seconds</t>
+  </si>
+  <si>
+    <t>pcap</t>
+  </si>
+  <si>
+    <t>keypress</t>
+  </si>
+  <si>
+    <t>screenshot</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>screenshotData data : 0:00:00.080053</t>
+  </si>
+  <si>
+    <t>screenshotData ui   : 0:00:01.138756</t>
+  </si>
+  <si>
+    <t>screenshotData total: 0:00:01.218809</t>
+  </si>
+  <si>
+    <t>total seconds</t>
+  </si>
+  <si>
+    <t>~25MB</t>
+  </si>
+  <si>
+    <t>~1.5GB</t>
+  </si>
+  <si>
+    <t>&gt;3GB</t>
+  </si>
+  <si>
+    <t>15MB Json</t>
+  </si>
+  <si>
+    <t>1.8MB Json</t>
+  </si>
+  <si>
+    <t>43MB Json</t>
+  </si>
+  <si>
+    <t>6MB</t>
+  </si>
+  <si>
+    <t>~190MB</t>
   </si>
 </sst>
 </file>
@@ -284,13 +210,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,190 +506,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F19"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="56.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:Q16"/>
+  <dimension ref="B4:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,64 +536,66 @@
   <sheetData>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2">
         <v>0.53277399999999997</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2.3386619999999998</v>
+      </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="L5" s="2">
         <v>0.79769699999999999</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="P5" s="2">
         <v>1.739101</v>
@@ -832,24 +603,26 @@
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2">
         <v>0.91109799999999996</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.95163200000000003</v>
+      </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2">
         <v>3.0392700000000001</v>
       </c>
       <c r="N6" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="P6" s="2">
         <v>14.301881</v>
@@ -857,35 +630,37 @@
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3">
         <v>1.443872</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3.2902939999999998</v>
+      </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="L7" s="3">
         <v>3.836967</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="O7" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="P7" s="3">
         <v>16.040982</v>
@@ -893,23 +668,23 @@
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2">
         <v>0.80943600000000004</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="H8" s="2"/>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="L8" s="2">
         <v>3.9474300000000002</v>
       </c>
       <c r="N8" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="P8" s="2">
         <v>10.393542</v>
@@ -917,24 +692,24 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2">
         <v>2.7371949999999998</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H9" s="2"/>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2">
         <v>37.289479</v>
       </c>
       <c r="N9" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="P9" s="2">
         <f>(60*3)+30</f>
@@ -943,32 +718,32 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3">
         <v>3.5466310000000001</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="H10" s="3"/>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="L10" s="3">
         <v>41.236908999999997</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="P10" s="3">
         <f>(60*3)+41</f>
@@ -977,24 +752,26 @@
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2">
         <v>7.3318999999999995E-2</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="H11" s="2">
+        <v>8.0052999999999999E-2</v>
+      </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2">
         <v>0.18476100000000001</v>
       </c>
       <c r="N11" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="P11" s="2">
         <v>0.37832100000000002</v>
@@ -1002,24 +779,26 @@
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2">
         <v>0.64422299999999999</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1.1387560000000001</v>
+      </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2">
         <v>2.8818830000000002</v>
       </c>
       <c r="N12" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="P12" s="2">
         <v>14.926545000000001</v>
@@ -1027,36 +806,38 @@
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3">
         <v>0.71754200000000001</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1.218809</v>
+      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="L13" s="3">
         <v>3.0666440000000001</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="O13" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="P13" s="3">
         <v>15.304866000000001</v>
@@ -1070,21 +851,21 @@
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="D15" s="3">
         <f>SUM(D13,D10,D7)</f>
         <v>5.7080450000000003</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <f>SUM(H13,H10,H7)</f>
+        <v>4.5091029999999996</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3">
@@ -1092,7 +873,7 @@
         <v>48.140519999999995</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="P15" s="3">
         <f>SUM(P13,P10,P7)</f>
@@ -1106,7 +887,295 @@
         <v>4.2057641333333331</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E4:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="5:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.501332</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.70855800000000002</v>
+      </c>
+      <c r="I5" s="2">
+        <v>6.5040000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.79953200000000002</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2.1604320000000001</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.43329099999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1.300864</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2.8689900000000002</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.49833100000000002</v>
+      </c>
+      <c r="J7" s="3">
+        <f>SUM(G7:I7)</f>
+        <v>4.6681850000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.195129</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.874583</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3.6025000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.87645899999999999</v>
+      </c>
+      <c r="H10" s="2">
+        <v>13.21777</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.1517630000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1.071588</v>
+      </c>
+      <c r="H11" s="3">
+        <v>14.092352999999999</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1.1877880000000001</v>
+      </c>
+      <c r="J11" s="3">
+        <f>SUM(G11:I11)</f>
+        <v>16.351728999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.42728300000000002</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3.396306</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.14709800000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2.4065460000000001</v>
+      </c>
+      <c r="H14" s="2">
+        <v>29.638818000000001</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2.2584979999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2.8338290000000002</v>
+      </c>
+      <c r="H15" s="3">
+        <v>33.035124000000003</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2.4055960000000001</v>
+      </c>
+      <c r="J15" s="3">
+        <f>SUM(G15:I15)</f>
+        <v>38.274549000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1.0326869999999999</v>
+      </c>
+      <c r="H17" s="2">
+        <v>10.393542</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.376251</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="2">
+        <v>11.692195999999999</v>
+      </c>
+      <c r="H18" s="2">
+        <f>(60*3)+30</f>
+        <v>210</v>
+      </c>
+      <c r="I18" s="2">
+        <v>14.245452</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="3">
+        <v>12.724883</v>
+      </c>
+      <c r="H19" s="3">
+        <f>(60*3)+41</f>
+        <v>221</v>
+      </c>
+      <c r="I19" s="3">
+        <v>14.621703</v>
+      </c>
+      <c r="J19" s="3">
+        <f>SUM(G19:I19)</f>
+        <v>248.346586</v>
+      </c>
+      <c r="K19">
+        <f>J19/60</f>
+        <v>4.1391097666666665</v>
       </c>
     </row>
   </sheetData>
